--- a/data/trans_bre/P36B13_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P36B13_R-Estudios-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.982322610563283</v>
+        <v>-6.952896886499457</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.16607681896101</v>
+        <v>-7.169457828521929</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.6608817978434237</v>
+        <v>-0.6547693654291382</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.786548455896477</v>
+        <v>-0.7868437479994282</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.19197935980515</v>
+        <v>-2.13232477665512</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.035628537428119</v>
+        <v>-2.059461312129673</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>-0.2735350434912106</v>
+        <v>-0.2625122319467435</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-0.3585379676088818</v>
+        <v>-0.3718523049916174</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.835794378257232</v>
+        <v>-7.037810858193732</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.825885553434624</v>
+        <v>-5.957185102024014</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4379881508306577</v>
+        <v>-0.4501886981750122</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5916127466502059</v>
+        <v>-0.6043769726994682</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-2.780312945211163</v>
+        <v>-3.057238314048384</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-2.152610248554407</v>
+        <v>-2.289396842544821</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.2091338212303531</v>
+        <v>-0.2235189085719346</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.278817074295033</v>
+        <v>-0.3159330317305686</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>-1.232562736139996</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-1.211246218902419</v>
+        <v>-1.211246218902418</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>-0.1467072330719415</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-0.2684938135608449</v>
+        <v>-0.2684938135608447</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.557386211098117</v>
+        <v>-4.584187594347954</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.060633903114363</v>
+        <v>-3.659297258281497</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.4441815378211316</v>
+        <v>-0.451148659875625</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.6103822038388642</v>
+        <v>-0.6034209435166307</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.036481467257258</v>
+        <v>1.835875386535988</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.010831890362639</v>
+        <v>1.101364622521902</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.2952990855482761</v>
+        <v>0.2838017861536218</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.3511128875890703</v>
+        <v>0.4231126297112</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-4.434013821587842</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-3.612052961430162</v>
+        <v>-3.612052961430159</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.3610493872452369</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.4831377984183747</v>
+        <v>-0.4831377984183745</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.980865016972229</v>
+        <v>-5.790733401356965</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.959499632124141</v>
+        <v>-4.805834364043802</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4525105929137762</v>
+        <v>-0.4501161211988536</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5819280870782459</v>
+        <v>-0.5843043526764274</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-3.02059454946962</v>
+        <v>-2.983704175285494</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-2.302219734402477</v>
+        <v>-2.492513934367833</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2589986544754755</v>
+        <v>-0.2566732172079417</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.3395317488704409</v>
+        <v>-0.3600726743035174</v>
       </c>
     </row>
     <row r="16">
